--- a/all_planchette/13.11.2023.xlsx
+++ b/all_planchette/13.11.2023.xlsx
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="784" uniqueCount="232">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="782" uniqueCount="242">
   <si>
     <t>Пара 1</t>
   </si>
@@ -192,6 +192,12 @@
     <t>Рыбальченко Т.Б.</t>
   </si>
   <si>
+    <t>ПИ-41,ПИ-43</t>
+  </si>
+  <si>
+    <t>Сулавко А.С.</t>
+  </si>
+  <si>
     <t>ИС-18</t>
   </si>
   <si>
@@ -219,15 +225,15 @@
     <t>Якубенко С.Я.</t>
   </si>
   <si>
+    <t>с/з1</t>
+  </si>
+  <si>
     <t>СА-11</t>
   </si>
   <si>
     <t>Королькова О.В.</t>
   </si>
   <si>
-    <t>с/з1</t>
-  </si>
-  <si>
     <t>с/з2</t>
   </si>
   <si>
@@ -288,9 +294,15 @@
     <t>СА-33</t>
   </si>
   <si>
+    <t>Голенко Д.А.</t>
+  </si>
+  <si>
     <t>Общ1-2</t>
   </si>
   <si>
+    <t>а</t>
+  </si>
+  <si>
     <t>Пара 2</t>
   </si>
   <si>
@@ -309,9 +321,18 @@
     <t>Арутюнян М.М.</t>
   </si>
   <si>
+    <t>Бойнар И.Н.</t>
+  </si>
+  <si>
     <t>Новосельцева Е.Ф.</t>
   </si>
   <si>
+    <t>РТ-41</t>
+  </si>
+  <si>
+    <t>Згонникова Т.Ф.</t>
+  </si>
+  <si>
     <t>СА-31</t>
   </si>
   <si>
@@ -327,16 +348,7 @@
     <t>ИС-21</t>
   </si>
   <si>
-    <t>РТ-41</t>
-  </si>
-  <si>
-    <t>Згонникова Т.Ф.</t>
-  </si>
-  <si>
-    <t>ПИ-42</t>
-  </si>
-  <si>
-    <t>Сулавко А.С.</t>
+    <t>ПИ-42,ПИ-41,ПИ-43</t>
   </si>
   <si>
     <t>ИС-33</t>
@@ -357,21 +369,21 @@
     <t>Когут П.Ю.</t>
   </si>
   <si>
+    <t>СА-21</t>
+  </si>
+  <si>
+    <t>Марышева О.В.</t>
+  </si>
+  <si>
+    <t>Ужегова Е.А.</t>
+  </si>
+  <si>
     <t>МТ-42</t>
   </si>
   <si>
     <t>Гапоненко Е.Ф.</t>
   </si>
   <si>
-    <t>СА-21</t>
-  </si>
-  <si>
-    <t>Марышева О.В.</t>
-  </si>
-  <si>
-    <t>Ужегова Е.А.</t>
-  </si>
-  <si>
     <t>СА-34</t>
   </si>
   <si>
@@ -384,27 +396,30 @@
     <t>116.0% заполненость корпус Тургеневский</t>
   </si>
   <si>
+    <t>СА-25/ИС-16</t>
+  </si>
+  <si>
+    <t>Старых О.А.</t>
+  </si>
+  <si>
+    <t>Прыгунова Т.А.</t>
+  </si>
+  <si>
+    <t>ИС-27</t>
+  </si>
+  <si>
+    <t>ИКС-31</t>
+  </si>
+  <si>
+    <t>ИС-28</t>
+  </si>
+  <si>
     <t>ПИ-41</t>
   </si>
   <si>
-    <t>Прыгунова Т.А.</t>
-  </si>
-  <si>
     <t>СА-36</t>
   </si>
   <si>
-    <t>ИС-27</t>
-  </si>
-  <si>
-    <t>ИКС-31</t>
-  </si>
-  <si>
-    <t>ИС-28</t>
-  </si>
-  <si>
-    <t>Старых О.А.</t>
-  </si>
-  <si>
     <t>Алябышева С.Н.</t>
   </si>
   <si>
@@ -414,12 +429,12 @@
     <t>ИС-36</t>
   </si>
   <si>
+    <t>ПИ-42, ПИ-43</t>
+  </si>
+  <si>
     <t>Студенникова Д.А.</t>
   </si>
   <si>
-    <t>Мельникова М.В.</t>
-  </si>
-  <si>
     <t>Романенко Е.Л.</t>
   </si>
   <si>
@@ -465,9 +480,6 @@
     <t>СА-26</t>
   </si>
   <si>
-    <t>Бойнар И.Н.</t>
-  </si>
-  <si>
     <t>ИС-38</t>
   </si>
   <si>
@@ -543,6 +555,9 @@
     <t>ИС-28,СА-46</t>
   </si>
   <si>
+    <t>Миронова</t>
+  </si>
+  <si>
     <t>ИС-22</t>
   </si>
   <si>
@@ -612,6 +627,9 @@
     <t>Гузов А.В.</t>
   </si>
   <si>
+    <t>ИС-23,ИС-26</t>
+  </si>
+  <si>
     <t>СА-33,МТ-42</t>
   </si>
   <si>
@@ -645,76 +663,88 @@
     <t>СК-41</t>
   </si>
   <si>
+    <t>Куракова Г.В.</t>
+  </si>
+  <si>
+    <t>Мельникова</t>
+  </si>
+  <si>
+    <t>Войнова Е.С.</t>
+  </si>
+  <si>
+    <t>ИКС-22</t>
+  </si>
+  <si>
+    <t>ИС-37/СА-32</t>
+  </si>
+  <si>
     <t>Задорожный К.А.</t>
   </si>
   <si>
+    <t>ИС-27/ИС-28</t>
+  </si>
+  <si>
+    <t>ИС-26</t>
+  </si>
+  <si>
+    <t>ИКС-33</t>
+  </si>
+  <si>
+    <t>Голиченко П.С.</t>
+  </si>
+  <si>
+    <t>ИС-32/ИС-31</t>
+  </si>
+  <si>
+    <t>Заводнов</t>
+  </si>
+  <si>
+    <t>ИБТ-21</t>
+  </si>
+  <si>
+    <t>ИС-34</t>
+  </si>
+  <si>
+    <t>Петрова М.Е.</t>
+  </si>
+  <si>
+    <t>ИС-35</t>
+  </si>
+  <si>
+    <t>2-ИС-З/ИС-38</t>
+  </si>
+  <si>
+    <t>Пара 5</t>
+  </si>
+  <si>
+    <t>Иванов В.С.</t>
+  </si>
+  <si>
+    <t>Алексеенко</t>
+  </si>
+  <si>
     <t>СА-32</t>
   </si>
   <si>
-    <t>Куракова Г.В.</t>
-  </si>
-  <si>
-    <t>Войнова Е.С.</t>
-  </si>
-  <si>
-    <t>Мельникова</t>
-  </si>
-  <si>
-    <t>ИКС-22</t>
-  </si>
-  <si>
-    <t>ИКС-33</t>
-  </si>
-  <si>
-    <t>Голиченко П.С.</t>
-  </si>
-  <si>
-    <t>Болховитина</t>
-  </si>
-  <si>
-    <t>Заводнов</t>
-  </si>
-  <si>
-    <t>ИС-26</t>
-  </si>
-  <si>
-    <t>ИБТ-21</t>
+    <t>ПОКС-44w</t>
+  </si>
+  <si>
+    <t>ПК-2-9</t>
+  </si>
+  <si>
+    <t>Родченко Т.В.</t>
+  </si>
+  <si>
+    <t>Пара 6</t>
+  </si>
+  <si>
+    <t>46.0% заполненость корпус Тургеневский</t>
   </si>
   <si>
     <t>ИС-32</t>
   </si>
   <si>
-    <t>Алексеенко</t>
-  </si>
-  <si>
-    <t>ИС-34</t>
-  </si>
-  <si>
-    <t>Петрова М.Е.</t>
-  </si>
-  <si>
     <t>ИС-31</t>
-  </si>
-  <si>
-    <t>ИС-35</t>
-  </si>
-  <si>
-    <t>Пара 5</t>
-  </si>
-  <si>
-    <t>Иванов В.С.</t>
-  </si>
-  <si>
-    <t>ПОКС-44w</t>
-  </si>
-  <si>
-    <t>Пара 6</t>
-  </si>
-  <si>
-    <t>46.0% заполненость корпус Тургеневский</t>
-  </si>
-  <si>
-    <t>Шашкин А.Г.</t>
   </si>
   <si>
     <t>Манакова О.П.</t>
@@ -727,7 +757,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd.mm.yyyy"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -749,17 +779,33 @@
     </font>
     <font>
       <sz val="11.0"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11.0"/>
       <color rgb="FF1F1F1F"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="lightGray"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF4A86E8"/>
+        <bgColor rgb="FF4A86E8"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -818,7 +864,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="26">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -857,10 +903,19 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFill="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="3" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment horizontal="left" readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="3" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -872,13 +927,16 @@
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="4" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="0" fillId="0" fontId="5" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="1" fillId="3" fontId="6" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="2" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
+    <xf borderId="1" fillId="3" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1">
       <alignment horizontal="left" readingOrder="0"/>
     </xf>
   </cellXfs>
@@ -1125,7 +1183,7 @@
     <col customWidth="1" min="2" max="2" width="10.25"/>
     <col customWidth="1" min="3" max="3" width="15.13"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
-    <col customWidth="1" min="5" max="5" width="10.25"/>
+    <col customWidth="1" min="5" max="5" width="12.13"/>
     <col customWidth="1" min="6" max="6" width="16.13"/>
   </cols>
   <sheetData>
@@ -1476,27 +1534,31 @@
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+      <c r="E20" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D21" s="2">
         <v>416.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -1504,26 +1566,30 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2">
         <v>418.0</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
         <v>420.0</v>
@@ -1547,12 +1613,6 @@
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="7" t="s">
-        <v>65</v>
-      </c>
-      <c r="C25" s="7" t="s">
-        <v>66</v>
-      </c>
       <c r="D25" s="2" t="s">
         <v>67</v>
       </c>
@@ -1563,10 +1623,14 @@
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
+      <c r="B26" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>69</v>
+      </c>
       <c r="D26" s="7" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -1578,7 +1642,7 @@
       <c r="B27" s="10"/>
       <c r="C27" s="10"/>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -1590,7 +1654,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -1603,10 +1667,10 @@
         <v>24</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E29" s="6"/>
       <c r="F29" s="6"/>
@@ -1616,13 +1680,13 @@
         <v>310.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" s="6"/>
       <c r="F30" s="6"/>
@@ -1634,7 +1698,7 @@
       <c r="B31" s="10"/>
       <c r="C31" s="10"/>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -1646,19 +1710,19 @@
       <c r="B32" s="10"/>
       <c r="C32" s="10"/>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
@@ -1668,13 +1732,13 @@
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -1682,7 +1746,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -1692,13 +1756,13 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -1706,13 +1770,13 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -1720,7 +1784,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="10"/>
@@ -1747,22 +1811,22 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.38"/>
-    <col customWidth="1" min="2" max="2" width="10.75"/>
+    <col customWidth="1" min="2" max="2" width="8.63"/>
     <col customWidth="1" min="3" max="3" width="15.88"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
-    <col customWidth="1" min="5" max="5" width="10.75"/>
+    <col customWidth="1" min="5" max="5" width="17.5"/>
     <col customWidth="1" min="6" max="6" width="16.25"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="14">
-        <v>45243.0</v>
+      <c r="A1" s="14" t="s">
+        <v>92</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -1778,7 +1842,7 @@
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -1793,7 +1857,7 @@
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="15" t="s">
         <v>4</v>
       </c>
       <c r="F3" s="7" t="s">
@@ -1805,7 +1869,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -1869,7 +1933,7 @@
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="E7" s="15" t="s">
         <v>16</v>
       </c>
       <c r="F7" s="7" t="s">
@@ -1889,7 +1953,7 @@
       <c r="D8" s="2">
         <v>324.0</v>
       </c>
-      <c r="E8" s="7" t="s">
+      <c r="E8" s="15" t="s">
         <v>20</v>
       </c>
       <c r="F8" s="7" t="s">
@@ -1901,19 +1965,19 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2">
         <v>325.0</v>
       </c>
-      <c r="E9" s="7" t="s">
+      <c r="E9" s="15" t="s">
         <v>52</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -1921,7 +1985,7 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>25</v>
@@ -1929,7 +1993,7 @@
       <c r="D10" s="2">
         <v>326.0</v>
       </c>
-      <c r="E10" s="7" t="s">
+      <c r="E10" s="15" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="7" t="s">
@@ -1949,8 +2013,12 @@
       <c r="D11" s="2">
         <v>401.0</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
+      <c r="E11" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
       <c r="A12" s="2" t="s">
@@ -1966,10 +2034,10 @@
         <v>404.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>58</v>
+        <v>2</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1977,7 +2045,7 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>34</v>
@@ -1996,7 +2064,7 @@
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="7" t="s">
+      <c r="B14" s="15" t="s">
         <v>37</v>
       </c>
       <c r="C14" s="7" t="s">
@@ -2021,7 +2089,7 @@
       <c r="D15" s="2">
         <v>408.0</v>
       </c>
-      <c r="E15" s="7" t="s">
+      <c r="E15" s="15" t="s">
         <v>40</v>
       </c>
       <c r="F15" s="7" t="s">
@@ -2036,7 +2104,7 @@
         <v>47</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D16" s="2">
         <v>410.0</v>
@@ -2052,20 +2120,14 @@
       <c r="A17" s="2">
         <v>210.0</v>
       </c>
-      <c r="B17" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="C17" s="7" t="s">
-        <v>46</v>
-      </c>
       <c r="D17" s="2">
         <v>411.0</v>
       </c>
-      <c r="E17" s="7" t="s">
-        <v>2</v>
+      <c r="E17" s="15" t="s">
+        <v>101</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -2073,16 +2135,16 @@
         <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="D18" s="7">
         <v>412.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="F18" s="7" t="s">
         <v>51</v>
@@ -2092,17 +2154,17 @@
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
-      <c r="B19" s="7" t="s">
-        <v>98</v>
+      <c r="B19" s="15" t="s">
+        <v>105</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>53</v>
@@ -2113,19 +2175,19 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>101</v>
+        <v>60</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>102</v>
+        <v>73</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>103</v>
+      <c r="E20" s="15" t="s">
+        <v>108</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2135,8 +2197,8 @@
       <c r="B21" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C21" s="15" t="s">
-        <v>57</v>
+      <c r="C21" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D21" s="2">
         <v>416.0</v>
@@ -2145,7 +2207,7 @@
         <v>43</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2153,35 +2215,39 @@
         <v>216.0</v>
       </c>
       <c r="B22" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D22" s="2">
         <v>418.0</v>
       </c>
-      <c r="E22" s="10"/>
-      <c r="F22" s="10"/>
+      <c r="E22" s="17" t="s">
+        <v>58</v>
+      </c>
+      <c r="F22" s="7" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D23" s="2">
         <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -2192,16 +2258,16 @@
         <v>45</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="D24" s="2">
         <v>422.0</v>
       </c>
-      <c r="E24" s="7" t="s">
-        <v>108</v>
+      <c r="E24" s="15" t="s">
+        <v>112</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -2212,7 +2278,7 @@
         <v>24</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="D25" s="2" t="s">
         <v>67</v>
@@ -2224,30 +2290,22 @@
       <c r="A26" s="2">
         <v>303.0</v>
       </c>
-      <c r="B26" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C26" s="7" t="s">
-        <v>112</v>
-      </c>
       <c r="D26" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
+        <v>70</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
         <v>305.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E27" s="10"/>
       <c r="F27" s="10"/>
@@ -2259,7 +2317,7 @@
       <c r="B28" s="10"/>
       <c r="C28" s="10"/>
       <c r="D28" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -2269,16 +2327,14 @@
         <v>307.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
+        <v>74</v>
+      </c>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
@@ -2288,10 +2344,10 @@
         <v>13</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
@@ -2300,10 +2356,14 @@
       <c r="A31" s="2">
         <v>312.0</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="15" t="s">
+        <v>118</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>119</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E31" s="10"/>
       <c r="F31" s="10"/>
@@ -2313,25 +2373,25 @@
         <v>314.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E32" s="6"/>
       <c r="F32" s="6"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E33" s="6"/>
       <c r="F33" s="6"/>
@@ -2341,13 +2401,13 @@
       <c r="B34" s="10"/>
       <c r="C34" s="10"/>
       <c r="D34" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="35" ht="12.75" customHeight="1">
@@ -2355,7 +2415,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -2365,13 +2425,13 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
@@ -2379,13 +2439,13 @@
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F37" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -2393,7 +2453,7 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="7" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E38" s="10"/>
       <c r="F38" s="12"/>
@@ -2423,19 +2483,19 @@
     <col customWidth="1" min="2" max="2" width="12.5"/>
     <col customWidth="1" min="3" max="3" width="16.75"/>
     <col customWidth="1" min="4" max="4" width="7.5"/>
-    <col customWidth="1" min="5" max="5" width="10.13"/>
+    <col customWidth="1" min="5" max="5" width="12.25"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="14">
+      <c r="A1" s="18">
         <v>45243.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -2445,17 +2505,11 @@
       <c r="A2" s="2">
         <v>5.0</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="2">
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>91</v>
+        <v>124</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -2465,12 +2519,8 @@
       <c r="A3" s="2">
         <v>6.0</v>
       </c>
-      <c r="B3" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="C3" s="7" t="s">
-        <v>114</v>
-      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
       <c r="D3" s="2">
         <v>318.0</v>
       </c>
@@ -2486,10 +2536,10 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="7" t="s">
-        <v>120</v>
+        <v>45</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>7</v>
+        <v>125</v>
       </c>
       <c r="D4" s="2">
         <v>320.0</v>
@@ -2498,7 +2548,7 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
@@ -2506,16 +2556,16 @@
         <v>104.0</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>122</v>
+        <v>22</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>9</v>
+        <v>27</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -2525,17 +2575,17 @@
       <c r="A6" s="2">
         <v>106.0</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>12</v>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D6" s="2">
         <v>323.0</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>14</v>
@@ -2554,19 +2604,15 @@
       <c r="D7" s="2">
         <v>324.0</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E7" s="7"/>
+      <c r="F7" s="7"/>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="C8" s="2" t="s">
         <v>19</v>
@@ -2574,31 +2620,27 @@
       <c r="D8" s="2">
         <v>324.0</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>17</v>
-      </c>
+      <c r="E8" s="7"/>
+      <c r="F8" s="7"/>
     </row>
     <row r="9" ht="12.75" customHeight="1">
       <c r="A9" s="2" t="s">
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2">
         <v>325.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -2606,19 +2648,19 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>45</v>
+        <v>130</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>7</v>
       </c>
       <c r="D10" s="2">
         <v>326.0</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -2626,7 +2668,7 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C11" s="8" t="s">
         <v>29</v>
@@ -2635,10 +2677,10 @@
         <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>22</v>
+        <v>131</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>27</v>
+        <v>9</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -2669,7 +2711,7 @@
         <v>6</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="D13" s="2">
         <v>406.0</v>
@@ -2745,7 +2787,7 @@
         <v>33</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
         <v>411.0</v>
@@ -2765,7 +2807,7 @@
         <v>47</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>127</v>
+        <v>132</v>
       </c>
       <c r="D18" s="2">
         <v>412.0</v>
@@ -2781,13 +2823,17 @@
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B19" s="9"/>
-      <c r="C19" s="9"/>
+      <c r="B19" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>25</v>
+      </c>
       <c r="D19" s="2">
         <v>414.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F19" s="7" t="s">
         <v>53</v>
@@ -2798,19 +2844,19 @@
         <v>212.0</v>
       </c>
       <c r="B20" s="7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2">
         <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -2818,7 +2864,7 @@
         <v>213.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>55</v>
@@ -2827,10 +2873,10 @@
         <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>103</v>
+        <v>135</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>104</v>
+        <v>57</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -2841,16 +2887,16 @@
         <v>18</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="D22" s="2">
         <v>416.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>2</v>
+        <v>107</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -2858,39 +2904,39 @@
         <v>216.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2">
         <v>418.0</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F23" s="2" t="s">
-        <v>132</v>
+        <v>137</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="D24" s="2">
         <v>420.0</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
@@ -2901,16 +2947,16 @@
         <v>54</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="D25" s="2">
         <v>422.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -2918,19 +2964,19 @@
         <v>220.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>67</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>137</v>
+        <v>142</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -2941,16 +2987,16 @@
         <v>52</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" ht="12.75" customHeight="1">
@@ -2958,13 +3004,13 @@
         <v>305.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E28" s="10"/>
       <c r="F28" s="10"/>
@@ -2974,13 +3020,13 @@
         <v>306.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -2993,10 +3039,10 @@
         <v>10</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -3009,26 +3055,24 @@
         <v>13</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E31" s="7"/>
-      <c r="F31" s="7"/>
+        <v>77</v>
+      </c>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
         <v>312.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>111</v>
+        <v>118</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>112</v>
+        <v>119</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -3038,29 +3082,29 @@
         <v>314.0</v>
       </c>
       <c r="B33" s="7" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="C33" s="7" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>71</v>
+        <v>80</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>12</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E34" s="12"/>
       <c r="F34" s="12"/>
@@ -3070,37 +3114,33 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="12"/>
-      <c r="B36" s="9"/>
-      <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="9"/>
-      <c r="B37" s="9"/>
-      <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
@@ -3108,13 +3148,13 @@
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
     </row>
     <row r="39" ht="12.75" customHeight="1">
@@ -3122,7 +3162,7 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E39" s="10"/>
       <c r="F39" s="10"/>
@@ -3149,19 +3189,19 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.0"/>
-    <col customWidth="1" min="2" max="2" width="16.75"/>
-    <col customWidth="1" min="3" max="3" width="17.5"/>
+    <col customWidth="1" min="2" max="2" width="14.38"/>
+    <col customWidth="1" min="3" max="3" width="16.63"/>
     <col customWidth="1" min="4" max="4" width="7.38"/>
-    <col customWidth="1" min="5" max="5" width="16.63"/>
+    <col customWidth="1" min="5" max="5" width="16.13"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
   </cols>
   <sheetData>
     <row r="1" ht="12.75" customHeight="1">
-      <c r="A1" s="16">
+      <c r="A1" s="19">
         <v>45229.0</v>
       </c>
-      <c r="B1" s="17" t="s">
-        <v>144</v>
+      <c r="B1" s="20" t="s">
+        <v>149</v>
       </c>
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
@@ -3169,614 +3209,626 @@
       <c r="F1" s="5"/>
     </row>
     <row r="2" ht="12.75" customHeight="1">
-      <c r="A2" s="18">
+      <c r="A2" s="21">
         <v>5.0</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18">
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21">
         <v>316.0</v>
       </c>
-      <c r="E2" s="18" t="s">
-        <v>92</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>145</v>
+      <c r="E2" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="F2" s="21" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="3" ht="12.75" customHeight="1">
-      <c r="A3" s="18">
+      <c r="A3" s="21">
         <v>6.0</v>
       </c>
-      <c r="B3" s="18"/>
-      <c r="C3" s="18"/>
-      <c r="D3" s="18">
+      <c r="B3" s="21"/>
+      <c r="C3" s="21"/>
+      <c r="D3" s="21">
         <v>318.0</v>
       </c>
-      <c r="E3" s="18" t="s">
-        <v>56</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>134</v>
+      <c r="E3" s="21" t="s">
+        <v>58</v>
+      </c>
+      <c r="F3" s="21" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
-      <c r="A4" s="18">
+      <c r="A4" s="21">
         <v>103.0</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="21" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="21" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="18">
+      <c r="D4" s="21">
         <v>320.0</v>
       </c>
-      <c r="E4" s="18" t="s">
-        <v>146</v>
-      </c>
-      <c r="F4" s="18" t="s">
+      <c r="E4" s="21" t="s">
+        <v>151</v>
+      </c>
+      <c r="F4" s="21" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" ht="12.75" customHeight="1">
+      <c r="A5" s="22">
+        <v>104.0</v>
+      </c>
+      <c r="B5" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>153</v>
+      </c>
+      <c r="D5" s="21">
+        <v>322.0</v>
+      </c>
+      <c r="E5" s="21" t="s">
+        <v>154</v>
+      </c>
+      <c r="F5" s="21" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="12.75" customHeight="1">
+      <c r="A6" s="21">
+        <v>106.0</v>
+      </c>
+      <c r="B6" s="21" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="21" t="s">
+        <v>155</v>
+      </c>
+      <c r="D6" s="21">
+        <v>323.0</v>
+      </c>
+      <c r="E6" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="F6" s="21" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" ht="12.75" customHeight="1">
+      <c r="A7" s="21">
+        <v>109.0</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" s="21">
+        <v>324.0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="F7" s="21" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="8" ht="12.75" customHeight="1">
+      <c r="A8" s="21">
+        <v>110.0</v>
+      </c>
+      <c r="B8" s="21" t="s">
+        <v>158</v>
+      </c>
+      <c r="C8" s="21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D8" s="21">
+        <v>325.0</v>
+      </c>
+      <c r="E8" s="21" t="s">
+        <v>160</v>
+      </c>
+      <c r="F8" s="21" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="9" ht="12.75" customHeight="1">
+      <c r="A9" s="21" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" s="21" t="s">
+        <v>161</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="21">
+        <v>326.0</v>
+      </c>
+      <c r="E9" s="21" t="s">
+        <v>162</v>
+      </c>
+      <c r="F9" s="21" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="10" ht="12.75" customHeight="1">
+      <c r="A10" s="21">
+        <v>111.0</v>
+      </c>
+      <c r="D10" s="21">
+        <v>401.0</v>
+      </c>
+      <c r="E10" s="21" t="s">
+        <v>164</v>
+      </c>
+      <c r="F10" s="21" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="11" ht="12.75" customHeight="1">
+      <c r="A11" s="21">
+        <v>114.0</v>
+      </c>
+      <c r="B11" s="21" t="s">
+        <v>166</v>
+      </c>
+      <c r="C11" s="21" t="s">
+        <v>167</v>
+      </c>
+      <c r="D11" s="21">
+        <v>404.0</v>
+      </c>
+      <c r="E11" s="21" t="s">
+        <v>168</v>
+      </c>
+      <c r="F11" s="21" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="12" ht="12.75" customHeight="1">
+      <c r="A12" s="21" t="s">
+        <v>30</v>
+      </c>
+      <c r="B12" s="21" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="21" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="21">
+        <v>406.0</v>
+      </c>
+      <c r="E12" s="21" t="s">
+        <v>170</v>
+      </c>
+      <c r="F12" s="21" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="13" ht="12.75" customHeight="1">
+      <c r="A13" s="21">
+        <v>118.0</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="21" t="s">
+        <v>173</v>
+      </c>
+      <c r="D13" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="21"/>
+      <c r="F13" s="21"/>
+    </row>
+    <row r="14" ht="12.75" customHeight="1">
+      <c r="A14" s="21">
+        <v>121.0</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>174</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="21">
+        <v>408.0</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="F14" s="8" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="15" ht="12.75" customHeight="1">
+      <c r="A15" s="21">
+        <v>122.0</v>
+      </c>
+      <c r="B15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C15" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D15" s="21">
+        <v>410.0</v>
+      </c>
+      <c r="E15" s="21" t="s">
+        <v>176</v>
+      </c>
+      <c r="F15" s="21" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="16" ht="12.75" customHeight="1">
+      <c r="A16" s="21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B16" s="23" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="23" t="s">
+        <v>177</v>
+      </c>
+      <c r="D16" s="21">
+        <v>411.0</v>
+      </c>
+      <c r="E16" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F16" s="21" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="17" ht="12.75" customHeight="1">
+      <c r="A17" s="21">
+        <v>210.0</v>
+      </c>
+      <c r="B17" s="21" t="s">
+        <v>180</v>
+      </c>
+      <c r="C17" s="21" t="s">
+        <v>69</v>
+      </c>
+      <c r="D17" s="21">
+        <v>412.0</v>
+      </c>
+      <c r="E17" s="21" t="s">
+        <v>181</v>
+      </c>
+      <c r="F17" s="21" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="A18" s="21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B18" s="21" t="s">
+        <v>182</v>
+      </c>
+      <c r="C18" s="24" t="s">
+        <v>183</v>
+      </c>
+      <c r="D18" s="21">
+        <v>414.0</v>
+      </c>
+      <c r="E18" s="21" t="s">
+        <v>184</v>
+      </c>
+      <c r="F18" s="21" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="A19" s="21">
+        <v>212.0</v>
+      </c>
+      <c r="B19" s="21" t="s">
+        <v>185</v>
+      </c>
+      <c r="C19" s="21" t="s">
+        <v>104</v>
+      </c>
+      <c r="D19" s="21">
+        <v>415.0</v>
+      </c>
+      <c r="E19" s="21" t="s">
+        <v>186</v>
+      </c>
+      <c r="F19" s="21" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="20" ht="12.75" customHeight="1">
+      <c r="A20" s="21">
+        <v>213.0</v>
+      </c>
+      <c r="B20" s="21" t="s">
+        <v>187</v>
+      </c>
+      <c r="C20" s="21" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="21">
+        <v>416.0</v>
+      </c>
+      <c r="E20" s="21" t="s">
+        <v>188</v>
+      </c>
+      <c r="F20" s="21" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="A21" s="21">
+        <v>214.0</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>189</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="21">
+        <v>418.0</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>190</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="A22" s="21">
+        <v>216.0</v>
+      </c>
+      <c r="B22" s="21" t="s">
+        <v>191</v>
+      </c>
+      <c r="C22" s="21" t="s">
+        <v>48</v>
+      </c>
+      <c r="D22" s="21">
+        <v>420.0</v>
+      </c>
+      <c r="E22" s="21" t="s">
+        <v>192</v>
+      </c>
+      <c r="F22" s="21" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="A23" s="21" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="21" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="21" t="s">
+        <v>195</v>
+      </c>
+      <c r="D23" s="21">
+        <v>422.0</v>
+      </c>
+      <c r="E23" s="21" t="s">
+        <v>196</v>
+      </c>
+      <c r="F23" s="21" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="24" ht="12.75" customHeight="1">
+      <c r="A24" s="21">
+        <v>217.0</v>
+      </c>
+      <c r="B24" s="21" t="s">
+        <v>198</v>
+      </c>
+      <c r="C24" s="21" t="s">
+        <v>199</v>
+      </c>
+      <c r="D24" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="E24" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="F24" s="21" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="A25" s="21">
+        <v>220.0</v>
+      </c>
+      <c r="B25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="D25" s="21" t="s">
+        <v>70</v>
+      </c>
+      <c r="E25" s="21"/>
+      <c r="F25" s="21"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="A26" s="21">
+        <v>303.0</v>
+      </c>
+      <c r="B26" s="23" t="s">
+        <v>201</v>
+      </c>
+      <c r="C26" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="D26" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="E26" s="21"/>
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="A27" s="21">
+        <v>305.0</v>
+      </c>
+      <c r="B27" s="21" t="s">
+        <v>202</v>
+      </c>
+      <c r="C27" s="21" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="5" ht="12.75" customHeight="1">
-      <c r="A5" s="19">
-        <v>104.0</v>
-      </c>
-      <c r="B5" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="C5" s="18" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="18">
-        <v>322.0</v>
-      </c>
-      <c r="E5" s="18" t="s">
-        <v>150</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" ht="12.75" customHeight="1">
-      <c r="A6" s="18">
-        <v>106.0</v>
-      </c>
-      <c r="B6" s="18" t="s">
-        <v>10</v>
-      </c>
-      <c r="C6" s="18" t="s">
-        <v>151</v>
-      </c>
-      <c r="D6" s="18">
-        <v>323.0</v>
-      </c>
-      <c r="E6" s="18" t="s">
-        <v>152</v>
-      </c>
-      <c r="F6" s="18" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" ht="12.75" customHeight="1">
-      <c r="A7" s="18">
-        <v>109.0</v>
-      </c>
-      <c r="B7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D7" s="18">
-        <v>324.0</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>148</v>
-      </c>
-      <c r="F7" s="18" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="8" ht="12.75" customHeight="1">
-      <c r="A8" s="18">
-        <v>110.0</v>
-      </c>
-      <c r="B8" s="18" t="s">
-        <v>154</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>155</v>
-      </c>
-      <c r="D8" s="18">
-        <v>325.0</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>156</v>
-      </c>
-      <c r="F8" s="18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="9" ht="12.75" customHeight="1">
-      <c r="A9" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>157</v>
-      </c>
-      <c r="C9" s="18" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="18">
-        <v>326.0</v>
-      </c>
-      <c r="E9" s="18" t="s">
-        <v>158</v>
-      </c>
-      <c r="F9" s="18" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="10" ht="12.75" customHeight="1">
-      <c r="A10" s="18">
-        <v>111.0</v>
-      </c>
-      <c r="D10" s="18">
-        <v>401.0</v>
-      </c>
-      <c r="E10" s="18" t="s">
-        <v>160</v>
-      </c>
-      <c r="F10" s="18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="11" ht="12.75" customHeight="1">
-      <c r="A11" s="18">
-        <v>114.0</v>
-      </c>
-      <c r="B11" s="18" t="s">
-        <v>162</v>
-      </c>
-      <c r="C11" s="18" t="s">
-        <v>163</v>
-      </c>
-      <c r="D11" s="18">
-        <v>404.0</v>
-      </c>
-      <c r="E11" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="F11" s="18" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="12" ht="12.75" customHeight="1">
-      <c r="A12" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B12" s="18" t="s">
-        <v>54</v>
-      </c>
-      <c r="C12" s="18" t="s">
-        <v>32</v>
-      </c>
-      <c r="D12" s="18">
-        <v>406.0</v>
-      </c>
-      <c r="E12" s="18" t="s">
-        <v>166</v>
-      </c>
-      <c r="F12" s="18" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="13" ht="12.75" customHeight="1">
-      <c r="A13" s="18">
-        <v>118.0</v>
-      </c>
-      <c r="B13" s="18" t="s">
-        <v>168</v>
-      </c>
-      <c r="C13" s="18" t="s">
-        <v>169</v>
-      </c>
-      <c r="D13" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="E13" s="18"/>
-      <c r="F13" s="18"/>
-    </row>
-    <row r="14" ht="12.75" customHeight="1">
-      <c r="A14" s="18">
-        <v>121.0</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>170</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="18">
-        <v>408.0</v>
-      </c>
-      <c r="E14" s="18" t="s">
-        <v>24</v>
-      </c>
-      <c r="F14" s="8" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="15" ht="12.75" customHeight="1">
-      <c r="A15" s="18">
-        <v>122.0</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D15" s="18">
-        <v>410.0</v>
-      </c>
-      <c r="E15" s="18" t="s">
-        <v>172</v>
-      </c>
-      <c r="F15" s="18" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="16" ht="12.75" customHeight="1">
-      <c r="A16" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="D16" s="18">
-        <v>411.0</v>
-      </c>
-      <c r="E16" s="18" t="s">
-        <v>173</v>
-      </c>
-      <c r="F16" s="18" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="17" ht="12.75" customHeight="1">
-      <c r="A17" s="18">
-        <v>210.0</v>
-      </c>
-      <c r="B17" s="18" t="s">
-        <v>175</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>66</v>
-      </c>
-      <c r="D17" s="18">
-        <v>412.0</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>176</v>
-      </c>
-      <c r="F17" s="18" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="A18" s="18" t="s">
-        <v>49</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C18" s="20" t="s">
-        <v>178</v>
-      </c>
-      <c r="D18" s="18">
-        <v>414.0</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>179</v>
-      </c>
-      <c r="F18" s="18" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="19" ht="12.75" customHeight="1">
-      <c r="A19" s="18">
-        <v>212.0</v>
-      </c>
-      <c r="B19" s="18" t="s">
-        <v>180</v>
-      </c>
-      <c r="C19" s="18" t="s">
-        <v>97</v>
-      </c>
-      <c r="D19" s="18">
-        <v>415.0</v>
-      </c>
-      <c r="E19" s="18" t="s">
-        <v>181</v>
-      </c>
-      <c r="F19" s="18" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="A20" s="18">
-        <v>213.0</v>
-      </c>
-      <c r="B20" s="18" t="s">
-        <v>182</v>
-      </c>
-      <c r="C20" s="18" t="s">
-        <v>55</v>
-      </c>
-      <c r="D20" s="18">
-        <v>416.0</v>
-      </c>
-      <c r="E20" s="18" t="s">
-        <v>183</v>
-      </c>
-      <c r="F20" s="18" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="A21" s="18">
-        <v>214.0</v>
-      </c>
-      <c r="B21" s="18" t="s">
-        <v>184</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>130</v>
-      </c>
-      <c r="D21" s="18">
-        <v>418.0</v>
-      </c>
-      <c r="E21" s="18" t="s">
-        <v>185</v>
-      </c>
-      <c r="F21" s="18" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="A22" s="18">
-        <v>216.0</v>
-      </c>
-      <c r="B22" s="18" t="s">
-        <v>186</v>
-      </c>
-      <c r="C22" s="18" t="s">
-        <v>48</v>
-      </c>
-      <c r="D22" s="18">
-        <v>420.0</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>187</v>
-      </c>
-      <c r="F22" s="18" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="A23" s="18" t="s">
-        <v>62</v>
-      </c>
-      <c r="B23" s="18" t="s">
-        <v>189</v>
-      </c>
-      <c r="C23" s="18" t="s">
-        <v>190</v>
-      </c>
-      <c r="D23" s="18">
-        <v>422.0</v>
-      </c>
-      <c r="E23" s="18" t="s">
-        <v>191</v>
-      </c>
-      <c r="F23" s="18" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="A24" s="18">
-        <v>217.0</v>
-      </c>
-      <c r="B24" s="18" t="s">
-        <v>193</v>
-      </c>
-      <c r="C24" s="18" t="s">
-        <v>194</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>67</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>8</v>
-      </c>
-      <c r="F24" s="18" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="A25" s="18">
-        <v>220.0</v>
-      </c>
-      <c r="B25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="C25" s="18" t="s">
-        <v>15</v>
-      </c>
-      <c r="D25" s="18" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="18"/>
-      <c r="F25" s="18"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="A26" s="18">
-        <v>303.0</v>
-      </c>
-      <c r="D26" s="18" t="s">
-        <v>69</v>
-      </c>
-      <c r="E26" s="18"/>
-      <c r="F26" s="18"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="A27" s="18">
-        <v>305.0</v>
-      </c>
-      <c r="B27" s="18" t="s">
-        <v>196</v>
-      </c>
-      <c r="C27" s="18" t="s">
-        <v>142</v>
-      </c>
-      <c r="D27" s="18" t="s">
-        <v>70</v>
-      </c>
-      <c r="E27" s="18"/>
-      <c r="F27" s="18"/>
+      <c r="D27" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="E27" s="21"/>
+      <c r="F27" s="21"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
-      <c r="A28" s="18">
+      <c r="A28" s="21">
         <v>306.0</v>
       </c>
-      <c r="B28" s="18" t="s">
-        <v>197</v>
-      </c>
-      <c r="C28" s="18" t="s">
+      <c r="B28" s="21" t="s">
+        <v>203</v>
+      </c>
+      <c r="C28" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="D28" s="18" t="s">
-        <v>72</v>
-      </c>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
+      <c r="D28" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="E28" s="21"/>
+      <c r="F28" s="21"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
-      <c r="A29" s="18">
+      <c r="A29" s="21">
         <v>307.0</v>
       </c>
-      <c r="B29" s="18" t="s">
+      <c r="B29" s="21" t="s">
         <v>37</v>
       </c>
-      <c r="C29" s="18" t="s">
-        <v>198</v>
-      </c>
-      <c r="D29" s="18" t="s">
-        <v>75</v>
-      </c>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
+      <c r="C29" s="21" t="s">
+        <v>204</v>
+      </c>
+      <c r="D29" s="21" t="s">
+        <v>77</v>
+      </c>
+      <c r="E29" s="21"/>
+      <c r="F29" s="21"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
-      <c r="A30" s="18">
+      <c r="A30" s="21">
         <v>310.0</v>
       </c>
-      <c r="B30" s="18" t="s">
-        <v>199</v>
-      </c>
-      <c r="C30" s="18" t="s">
-        <v>74</v>
-      </c>
-      <c r="D30" s="18" t="s">
+      <c r="B30" s="21" t="s">
+        <v>205</v>
+      </c>
+      <c r="C30" s="21" t="s">
         <v>76</v>
       </c>
-      <c r="E30" s="18"/>
-      <c r="F30" s="18"/>
+      <c r="D30" s="21" t="s">
+        <v>78</v>
+      </c>
+      <c r="E30" s="21"/>
+      <c r="F30" s="21"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
-      <c r="A31" s="18">
+      <c r="A31" s="21">
         <v>312.0</v>
       </c>
-      <c r="B31" s="18" t="s">
-        <v>200</v>
-      </c>
-      <c r="C31" s="18" t="s">
-        <v>201</v>
-      </c>
-      <c r="D31" s="18" t="s">
-        <v>77</v>
-      </c>
-      <c r="E31" s="18"/>
-      <c r="F31" s="18"/>
+      <c r="B31" s="21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C31" s="21" t="s">
+        <v>207</v>
+      </c>
+      <c r="D31" s="21" t="s">
+        <v>79</v>
+      </c>
+      <c r="E31" s="21"/>
+      <c r="F31" s="21"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
-      <c r="A32" s="18">
+      <c r="A32" s="21">
         <v>314.0</v>
       </c>
-      <c r="B32" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="C32" s="18" t="s">
-        <v>71</v>
-      </c>
-      <c r="D32" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="E32" s="18"/>
-      <c r="F32" s="18"/>
+      <c r="B32" s="21" t="s">
+        <v>131</v>
+      </c>
+      <c r="C32" s="21" t="s">
+        <v>73</v>
+      </c>
+      <c r="D32" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="E32" s="21"/>
+      <c r="F32" s="21"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="D33" s="18" t="s">
+      <c r="A33" s="21" t="s">
         <v>80</v>
       </c>
-      <c r="E33" s="18"/>
-      <c r="F33" s="18"/>
+      <c r="D33" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="E33" s="21"/>
+      <c r="F33" s="21"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="18"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="18"/>
-      <c r="D34" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="E34" s="18" t="s">
-        <v>83</v>
-      </c>
-      <c r="F34" s="18"/>
+      <c r="A34" s="21"/>
+      <c r="B34" s="21"/>
+      <c r="C34" s="21"/>
+      <c r="D34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="E34" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="F34" s="21"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="18"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="18"/>
-      <c r="D35" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E35" s="18"/>
-      <c r="F35" s="18"/>
+      <c r="A35" s="21"/>
+      <c r="B35" s="21"/>
+      <c r="C35" s="21"/>
+      <c r="D35" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" s="21"/>
+      <c r="F35" s="21"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
-      <c r="A36" s="18"/>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18" t="s">
-        <v>88</v>
-      </c>
-      <c r="E36" s="18"/>
-      <c r="F36" s="18"/>
+      <c r="A36" s="21"/>
+      <c r="B36" s="21"/>
+      <c r="C36" s="21"/>
+      <c r="D36" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="E36" s="21"/>
+      <c r="F36" s="21"/>
     </row>
     <row r="37" ht="12.75" customHeight="1">
-      <c r="A37" s="18"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18" t="s">
-        <v>84</v>
-      </c>
-      <c r="E37" s="18"/>
-      <c r="F37" s="18"/>
+      <c r="A37" s="21"/>
+      <c r="B37" s="21"/>
+      <c r="C37" s="21"/>
+      <c r="D37" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="21"/>
+      <c r="F37" s="21"/>
     </row>
     <row r="38" ht="12.75" customHeight="1"/>
   </sheetData>
@@ -3813,10 +3865,10 @@
         <v>45243.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -3832,7 +3884,7 @@
         <v>316.0</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F2" s="7" t="s">
         <v>3</v>
@@ -3848,7 +3900,7 @@
         <v>318.0</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>5</v>
@@ -3859,7 +3911,7 @@
         <v>103.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>7</v>
@@ -3868,27 +3920,27 @@
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>112</v>
+      <c r="B5" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="C5" s="23" t="s">
+        <v>9</v>
       </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -3908,7 +3960,7 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
       <c r="F6" s="7" t="s">
         <v>14</v>
@@ -3931,7 +3983,7 @@
         <v>52</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -3939,7 +3991,7 @@
         <v>110.0</v>
       </c>
       <c r="B8" s="7" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>19</v>
@@ -3948,10 +4000,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -3959,19 +4011,19 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2">
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>185</v>
+        <v>103</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -3979,19 +4031,19 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2">
-        <v>326.0</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>208</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>207</v>
+        <v>401.0</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -3999,19 +4051,19 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>401.0</v>
+        <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>177</v>
+        <v>109</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -4025,13 +4077,13 @@
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>404.0</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>209</v>
+        <v>406.0</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>214</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -4042,17 +4094,13 @@
         <v>50</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>210</v>
-      </c>
-      <c r="D13" s="2">
-        <v>406.0</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>211</v>
-      </c>
+        <v>215</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
@@ -4062,16 +4110,16 @@
         <v>24</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D14" s="2">
-        <v>406.0</v>
+        <v>408.0</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>123</v>
+        <v>216</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>134</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -4085,13 +4133,13 @@
         <v>38</v>
       </c>
       <c r="D15" s="2">
-        <v>406.0</v>
+        <v>410.0</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>125</v>
+        <v>217</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>134</v>
+        <v>218</v>
       </c>
     </row>
     <row r="16" ht="12.75" customHeight="1">
@@ -4104,11 +4152,15 @@
       <c r="C16" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="9"/>
-      <c r="F16" s="9"/>
+      <c r="D16" s="2">
+        <v>411.0</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2" t="s">
@@ -4118,16 +4170,16 @@
         <v>18</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
       <c r="D17" s="2">
-        <v>408.0</v>
+        <v>412.0</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>212</v>
+        <v>219</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>48</v>
+        <v>139</v>
       </c>
     </row>
     <row r="18" ht="12.75" customHeight="1">
@@ -4138,48 +4190,56 @@
         <v>22</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="D18" s="2">
-        <v>410.0</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>414.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D19" s="2">
-        <v>411.0</v>
-      </c>
-      <c r="E19" s="9"/>
-      <c r="F19" s="9"/>
+        <v>415.0</v>
+      </c>
+      <c r="E19" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
       <c r="A20" s="2">
         <v>212.0</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>99</v>
+        <v>106</v>
       </c>
       <c r="D20" s="2">
-        <v>412.0</v>
+        <v>415.0</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>47</v>
+        <v>223</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>215</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
@@ -4190,36 +4250,32 @@
         <v>40</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="D21" s="2">
-        <v>414.0</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>53</v>
-      </c>
+        <v>416.0</v>
+      </c>
+      <c r="E21" s="9"/>
+      <c r="F21" s="9"/>
     </row>
     <row r="22" ht="12.75" customHeight="1">
       <c r="A22" s="2">
         <v>214.0</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D22" s="2">
-        <v>415.0</v>
+        <v>418.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>219</v>
+        <v>170</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>106</v>
+        <v>137</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
@@ -4227,55 +4283,53 @@
         <v>216.0</v>
       </c>
       <c r="B23" s="7" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="D23" s="2">
-        <v>415.0</v>
+        <v>420.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>120</v>
+        <v>226</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>104</v>
+        <v>227</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B24" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="C24" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="D24" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>64</v>
+      </c>
+      <c r="D24" s="7">
+        <v>422.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>217.0</v>
       </c>
       <c r="B25" s="8" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2">
-        <v>418.0</v>
+        <v>59</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>166</v>
+        <v>128</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -4283,19 +4337,19 @@
         <v>220.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>135</v>
+        <v>140</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>136</v>
-      </c>
-      <c r="D26" s="2">
-        <v>420.0</v>
+        <v>141</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>67</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>221</v>
+        <v>138</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>222</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
@@ -4303,159 +4357,135 @@
         <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="7">
-        <v>422.0</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>109</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E27" s="12"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>303.0</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="C28" s="2" t="s">
-        <v>17</v>
+        <v>305.0</v>
+      </c>
+      <c r="B28" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>73</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="F28" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>71</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>305.0</v>
+        <v>306.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>146</v>
+        <v>228</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>71</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E29" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="F29" s="7" t="s">
-        <v>141</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="E29" s="9"/>
+      <c r="F29" s="9"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>306.0</v>
+        <v>307.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>224</v>
+        <v>178</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E30" s="12"/>
-      <c r="F30" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="E30" s="9"/>
+      <c r="F30" s="9"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>307.0</v>
-      </c>
-      <c r="B31" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="C31" s="7" t="s">
-        <v>115</v>
+        <v>310.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>51</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>312.0</v>
+      </c>
+      <c r="B32" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="C32" s="7" t="s">
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
       <c r="A33" s="2">
-        <v>312.0</v>
-      </c>
-      <c r="B33" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="C33" s="7" t="s">
-        <v>201</v>
+        <v>314.0</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="2">
-        <v>314.0</v>
-      </c>
-      <c r="B34" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C34" s="7" t="s">
-        <v>82</v>
-      </c>
+      <c r="A34" s="7" t="s">
+        <v>80</v>
+      </c>
+      <c r="B34" s="9"/>
+      <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
-      <c r="A35" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A35" s="9"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="9"/>
-      <c r="F35" s="9"/>
+        <v>82</v>
+      </c>
+      <c r="E35" s="11"/>
+      <c r="F35" s="11"/>
     </row>
     <row r="36" ht="12.75" customHeight="1">
       <c r="A36" s="9"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="2" t="s">
-        <v>77</v>
+      <c r="D36" s="7" t="s">
+        <v>85</v>
       </c>
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
@@ -4464,70 +4494,47 @@
       <c r="A37" s="9"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E37" s="9"/>
-      <c r="F37" s="9"/>
+      <c r="D37" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="E37" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="38" ht="12.75" customHeight="1">
       <c r="A38" s="9"/>
-      <c r="B38" s="9"/>
-      <c r="C38" s="9"/>
+      <c r="B38" s="7"/>
+      <c r="C38" s="7"/>
       <c r="D38" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
+        <v>86</v>
+      </c>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
     </row>
     <row r="39" ht="12.75" customHeight="1">
       <c r="A39" s="9"/>
       <c r="B39" s="7"/>
       <c r="C39" s="7"/>
-      <c r="D39" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="E39" s="9"/>
-      <c r="F39" s="9"/>
+      <c r="D39" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
     </row>
     <row r="40" ht="12.75" customHeight="1">
       <c r="A40" s="9"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="E40" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="F40" s="7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B40" s="9"/>
+      <c r="C40" s="9"/>
     </row>
     <row r="41" ht="12.75" customHeight="1">
       <c r="A41" s="9"/>
       <c r="B41" s="9"/>
       <c r="C41" s="9"/>
-      <c r="D41" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="E41" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="42" ht="12.75" customHeight="1">
-      <c r="A42" s="9"/>
-      <c r="B42" s="9"/>
-      <c r="C42" s="9"/>
-      <c r="D42" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-    </row>
+    </row>
+    <row r="42" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -4550,10 +4557,10 @@
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
   <cols>
     <col customWidth="1" min="1" max="1" width="10.5"/>
-    <col customWidth="1" min="2" max="2" width="9.13"/>
-    <col customWidth="1" min="3" max="3" width="16.13"/>
+    <col customWidth="1" min="2" max="2" width="8.25"/>
+    <col customWidth="1" min="3" max="3" width="17.13"/>
     <col customWidth="1" min="4" max="4" width="7.63"/>
-    <col customWidth="1" min="5" max="5" width="10.5"/>
+    <col customWidth="1" min="5" max="5" width="11.75"/>
     <col customWidth="1" min="6" max="6" width="16.0"/>
   </cols>
   <sheetData>
@@ -4562,7 +4569,7 @@
         <v>45243.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>225</v>
+        <v>230</v>
       </c>
       <c r="C1" s="3" t="s">
         <v>1</v>
@@ -4593,10 +4600,10 @@
         <v>318.0</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" ht="12.75" customHeight="1">
@@ -4609,27 +4616,21 @@
         <v>320.0</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>133</v>
+        <v>138</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" ht="12.75" customHeight="1">
       <c r="A5" s="2">
         <v>104.0</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>9</v>
-      </c>
       <c r="D5" s="2">
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="F5" s="7" t="s">
         <v>11</v>
@@ -4640,7 +4641,7 @@
         <v>106.0</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>12</v>
@@ -4665,26 +4666,30 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
       <c r="A8" s="2">
         <v>110.0</v>
       </c>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
+      <c r="B8" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>9</v>
+      </c>
       <c r="D8" s="2">
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>173</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -4692,19 +4697,19 @@
         <v>21</v>
       </c>
       <c r="B9" s="7" t="s">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="D9" s="2">
-        <v>325.0</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>94</v>
+        <v>326.0</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>129</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -4712,19 +4717,19 @@
         <v>111.0</v>
       </c>
       <c r="B10" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D10" s="2">
         <v>326.0</v>
       </c>
-      <c r="E10" s="8" t="s">
-        <v>125</v>
-      </c>
-      <c r="F10" s="8" t="s">
-        <v>134</v>
+      <c r="E10" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -4732,19 +4737,19 @@
         <v>114.0</v>
       </c>
       <c r="B11" s="7" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="C11" s="7" t="s">
         <v>25</v>
       </c>
       <c r="D11" s="2">
-        <v>326.0</v>
+        <v>401.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>166</v>
+        <v>182</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>134</v>
+        <v>165</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -4752,19 +4757,19 @@
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>32</v>
       </c>
       <c r="D12" s="2">
-        <v>401.0</v>
+        <v>404.0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>177</v>
+        <v>226</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>161</v>
+        <v>213</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -4772,39 +4777,21 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2">
-        <v>404.0</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>209</v>
+        <v>406.0</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
       <c r="A14" s="2">
         <v>121.0</v>
       </c>
-      <c r="B14" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="C14" s="7" t="s">
-        <v>82</v>
-      </c>
       <c r="D14" s="2">
         <v>406.0</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>207</v>
       </c>
     </row>
     <row r="15" ht="12.75" customHeight="1">
@@ -4817,31 +4804,27 @@
       <c r="C15" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="2">
-        <v>406.0</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>207</v>
-      </c>
+      <c r="D15" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="E15" s="12"/>
+      <c r="F15" s="12"/>
     </row>
     <row r="16" ht="12.75" customHeight="1">
       <c r="A16" s="2" t="s">
         <v>42</v>
       </c>
       <c r="B16" s="7" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="E16" s="12"/>
-      <c r="F16" s="12"/>
+        <v>100</v>
+      </c>
+      <c r="D16" s="2">
+        <v>408.0</v>
+      </c>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
     </row>
     <row r="17" ht="12.75" customHeight="1">
       <c r="A17" s="2">
@@ -4850,39 +4833,43 @@
       <c r="B17" s="10"/>
       <c r="C17" s="10"/>
       <c r="D17" s="2">
-        <v>408.0</v>
-      </c>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
+        <v>410.0</v>
+      </c>
+      <c r="E17" s="9"/>
+      <c r="F17" s="9"/>
     </row>
     <row r="18" ht="12.75" customHeight="1">
       <c r="A18" s="2" t="s">
         <v>49</v>
       </c>
       <c r="B18" s="7" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="D18" s="2">
-        <v>410.0</v>
-      </c>
-      <c r="E18" s="9"/>
-      <c r="F18" s="9"/>
+        <v>411.0</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
       <c r="A19" s="2">
         <v>212.0</v>
       </c>
       <c r="B19" s="7" t="s">
-        <v>208</v>
+        <v>103</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>220</v>
+        <v>232</v>
       </c>
       <c r="D19" s="2">
-        <v>411.0</v>
+        <v>412.0</v>
       </c>
       <c r="E19" s="10"/>
       <c r="F19" s="10"/>
@@ -4892,31 +4879,37 @@
         <v>213.0</v>
       </c>
       <c r="B20" s="9"/>
-      <c r="C20" s="9"/>
+      <c r="C20" s="7" t="s">
+        <v>23</v>
+      </c>
       <c r="D20" s="2">
-        <v>412.0</v>
-      </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="10"/>
+        <v>414.0</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>227</v>
+      </c>
     </row>
     <row r="21" ht="12.75" customHeight="1">
       <c r="A21" s="2">
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2">
-        <v>414.0</v>
+        <v>415.0</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>129</v>
+        <v>223</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>222</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" ht="12.75" customHeight="1">
@@ -4926,61 +4919,65 @@
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
       <c r="D22" s="2">
-        <v>415.0</v>
-      </c>
-      <c r="E22" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="F22" s="7" t="s">
-        <v>106</v>
-      </c>
+        <v>416.0</v>
+      </c>
+      <c r="E22" s="9"/>
+      <c r="F22" s="9"/>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
       <c r="D23" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
+        <v>418.0</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>137</v>
+      </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
       <c r="A24" s="2">
         <v>217.0</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>92</v>
-      </c>
-      <c r="C24" s="21" t="s">
-        <v>57</v>
+      <c r="B24" s="25" t="s">
+        <v>96</v>
+      </c>
+      <c r="C24" s="25" t="s">
+        <v>59</v>
       </c>
       <c r="D24" s="2">
-        <v>416.0</v>
-      </c>
-      <c r="E24" s="9"/>
-      <c r="F24" s="9"/>
+        <v>420.0</v>
+      </c>
+      <c r="E24" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>218</v>
+      </c>
     </row>
     <row r="25" ht="12.75" customHeight="1">
       <c r="A25" s="2">
         <v>220.0</v>
       </c>
-      <c r="B25" s="15" t="s">
-        <v>205</v>
-      </c>
-      <c r="C25" s="21" t="s">
-        <v>136</v>
+      <c r="B25" s="16" t="s">
+        <v>211</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>141</v>
       </c>
       <c r="D25" s="2">
-        <v>418.0</v>
+        <v>420.0</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>180</v>
+        <v>233</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
     </row>
     <row r="26" ht="12.75" customHeight="1">
@@ -4988,143 +4985,141 @@
         <v>303.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>223</v>
+        <v>196</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D26" s="2">
-        <v>420.0</v>
-      </c>
-      <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
+        <v>422.0</v>
+      </c>
+      <c r="E26" s="8" t="s">
+        <v>234</v>
+      </c>
+      <c r="F26" s="8" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="27" ht="12.75" customHeight="1">
       <c r="A27" s="2">
-        <v>303.0</v>
+        <v>305.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="D27" s="2">
-        <v>422.0</v>
-      </c>
-      <c r="E27" s="8" t="s">
-        <v>227</v>
-      </c>
-      <c r="F27" s="8" t="s">
-        <v>109</v>
-      </c>
+        <v>116</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="10"/>
+      <c r="F27" s="10"/>
     </row>
     <row r="28" ht="12.75" customHeight="1">
       <c r="A28" s="2">
-        <v>305.0</v>
+        <v>306.0</v>
       </c>
       <c r="B28" s="7" t="s">
-        <v>128</v>
+        <v>228</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>114</v>
+        <v>148</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
+        <v>70</v>
+      </c>
+      <c r="E28" s="9"/>
+      <c r="F28" s="9"/>
     </row>
     <row r="29" ht="12.75" customHeight="1">
       <c r="A29" s="2">
-        <v>306.0</v>
+        <v>307.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>224</v>
+        <v>138</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>117</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E29" s="9"/>
-      <c r="F29" s="9"/>
+        <v>71</v>
+      </c>
+      <c r="E29" s="10"/>
+      <c r="F29" s="10"/>
     </row>
     <row r="30" ht="12.75" customHeight="1">
       <c r="A30" s="2">
-        <v>307.0</v>
+        <v>310.0</v>
       </c>
       <c r="B30" s="7" t="s">
-        <v>133</v>
+        <v>235</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E30" s="10"/>
       <c r="F30" s="10"/>
     </row>
     <row r="31" ht="12.75" customHeight="1">
       <c r="A31" s="2">
-        <v>310.0</v>
-      </c>
-      <c r="B31" s="9"/>
-      <c r="C31" s="9"/>
+        <v>312.0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>207</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
+        <v>74</v>
+      </c>
+      <c r="E31" s="9"/>
+      <c r="F31" s="9"/>
     </row>
     <row r="32" ht="12.75" customHeight="1">
       <c r="A32" s="2">
-        <v>312.0</v>
-      </c>
-      <c r="B32" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="C32" s="7" t="s">
-        <v>201</v>
-      </c>
+        <v>314.0</v>
+      </c>
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
       <c r="D32" s="2" t="s">
-        <v>72</v>
+        <v>77</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
     </row>
     <row r="33" ht="12.75" customHeight="1">
-      <c r="A33" s="2">
-        <v>314.0</v>
+      <c r="A33" s="7" t="s">
+        <v>80</v>
       </c>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
     </row>
     <row r="34" ht="12.75" customHeight="1">
-      <c r="A34" s="7" t="s">
-        <v>78</v>
-      </c>
+      <c r="A34" s="10"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E34" s="9"/>
-      <c r="F34" s="9"/>
+        <v>79</v>
+      </c>
+      <c r="E34" s="10"/>
+      <c r="F34" s="10"/>
     </row>
     <row r="35" ht="12.75" customHeight="1">
       <c r="A35" s="10"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -5134,27 +5129,31 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
+        <v>82</v>
+      </c>
+      <c r="E36" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="F36" s="7" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" ht="12.75" customHeight="1">
       <c r="A37" s="10"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
       <c r="D37" s="2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
     </row>
     <row r="38" ht="12.75" customHeight="1">
-      <c r="A38" s="10"/>
+      <c r="A38" s="9"/>
       <c r="B38" s="9"/>
       <c r="C38" s="9"/>
       <c r="D38" s="2" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
@@ -5164,21 +5163,12 @@
       <c r="B39" s="9"/>
       <c r="C39" s="9"/>
       <c r="D39" s="2" t="s">
-        <v>84</v>
+        <v>91</v>
       </c>
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
     </row>
-    <row r="40" ht="12.75" customHeight="1">
-      <c r="A40" s="9"/>
-      <c r="B40" s="9"/>
-      <c r="C40" s="9"/>
-      <c r="D40" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="E40" s="9"/>
-      <c r="F40" s="9"/>
-    </row>
+    <row r="40" ht="12.75" customHeight="1"/>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C1:F1"/>
@@ -5213,10 +5203,10 @@
         <v>45243.0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>228</v>
+        <v>237</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>229</v>
+        <v>238</v>
       </c>
       <c r="D1" s="4"/>
       <c r="E1" s="4"/>
@@ -5268,10 +5258,10 @@
         <v>322.0</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" ht="12.75" customHeight="1">
@@ -5284,10 +5274,10 @@
         <v>323.0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
     </row>
     <row r="7" ht="12.75" customHeight="1">
@@ -5304,10 +5294,10 @@
         <v>324.0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>226</v>
+        <v>231</v>
       </c>
     </row>
     <row r="8" ht="12.75" customHeight="1">
@@ -5320,10 +5310,10 @@
         <v>325.0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>205</v>
+        <v>211</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" ht="12.75" customHeight="1">
@@ -5336,10 +5326,10 @@
         <v>326.0</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>208</v>
+        <v>233</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" ht="12.75" customHeight="1">
@@ -5352,10 +5342,10 @@
         <v>401.0</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" ht="12.75" customHeight="1">
@@ -5368,10 +5358,10 @@
         <v>404.0</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>219</v>
+        <v>239</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
     </row>
     <row r="12" ht="12.75" customHeight="1">
@@ -5379,7 +5369,7 @@
         <v>30</v>
       </c>
       <c r="B12" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="C12" s="7" t="s">
         <v>32</v>
@@ -5395,10 +5385,10 @@
         <v>118.0</v>
       </c>
       <c r="B13" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>39</v>
@@ -5466,10 +5456,10 @@
         <v>414.0</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>221</v>
+        <v>226</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
     </row>
     <row r="19" ht="12.75" customHeight="1">
@@ -5482,10 +5472,10 @@
         <v>415.0</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>223</v>
+        <v>240</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
     </row>
     <row r="20" ht="12.75" customHeight="1">
@@ -5505,10 +5495,10 @@
         <v>214.0</v>
       </c>
       <c r="B21" s="7" t="s">
-        <v>218</v>
+        <v>225</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>178</v>
+        <v>183</v>
       </c>
       <c r="D21" s="2">
         <v>418.0</v>
@@ -5526,15 +5516,15 @@
         <v>420.0</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>128</v>
+        <v>133</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>231</v>
+        <v>241</v>
       </c>
     </row>
     <row r="23" ht="12.75" customHeight="1">
       <c r="A23" s="2" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -5542,10 +5532,10 @@
         <v>422.0</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>227</v>
+        <v>234</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
     </row>
     <row r="24" ht="12.75" customHeight="1">
@@ -5553,10 +5543,10 @@
         <v>217.0</v>
       </c>
       <c r="B24" s="7" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D24" s="2" t="s">
         <v>67</v>
@@ -5569,13 +5559,13 @@
         <v>217.0</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="E25" s="6"/>
       <c r="F25" s="6"/>
@@ -5585,13 +5575,13 @@
         <v>220.0</v>
       </c>
       <c r="B26" s="7" t="s">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>136</v>
+        <v>141</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E26" s="10"/>
       <c r="F26" s="10"/>
@@ -5601,13 +5591,13 @@
         <v>303.0</v>
       </c>
       <c r="B27" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>17</v>
+        <v>84</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
@@ -5619,7 +5609,7 @@
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
@@ -5629,13 +5619,13 @@
         <v>306.0</v>
       </c>
       <c r="B29" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
@@ -5647,7 +5637,7 @@
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
@@ -5656,10 +5646,14 @@
       <c r="A31" s="2">
         <v>310.0</v>
       </c>
-      <c r="B31" s="10"/>
-      <c r="C31" s="10"/>
+      <c r="B31" s="7" t="s">
+        <v>235</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>236</v>
+      </c>
       <c r="D31" s="2" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="E31" s="6"/>
       <c r="F31" s="6"/>
@@ -5669,13 +5663,13 @@
         <v>312.0</v>
       </c>
       <c r="B32" s="7" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="C32" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
@@ -5687,23 +5681,23 @@
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
       <c r="D33" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
     </row>
     <row r="34" ht="12.75" customHeight="1">
       <c r="A34" s="7" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
       <c r="D34" s="2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="E34" s="10"/>
       <c r="F34" s="10"/>
@@ -5713,7 +5707,7 @@
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
       <c r="D35" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="E35" s="10"/>
       <c r="F35" s="10"/>
@@ -5723,7 +5717,7 @@
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
       <c r="D36" s="2" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="E36" s="10"/>
       <c r="F36" s="10"/>
